--- a/Epic - Chandra.xlsx
+++ b/Epic - Chandra.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://quintiles-my.sharepoint.com/personal/venkataramarao_burri_iqvia_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SBOGA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B933DC62-C43E-436F-9061-757849CE099B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B778EC9-5EB6-4FEF-A8B7-5B9E96716914}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{958B04C8-482B-4820-B38F-9C4DCCBC1946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="720" windowWidth="18105" windowHeight="17280" xr2:uid="{C59D9682-07F2-48C7-9CC8-AE67D89BF6B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C59D9682-07F2-48C7-9CC8-AE67D89BF6B4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="173">
   <si>
     <t>SEQ</t>
   </si>
@@ -333,6 +333,258 @@
   </si>
   <si>
     <t>Data Type/ Size</t>
+  </si>
+  <si>
+    <t>ADT_ARRIVAL_TIME</t>
+  </si>
+  <si>
+    <t>PAT_ENC_HSP</t>
+  </si>
+  <si>
+    <t>DATETIME </t>
+  </si>
+  <si>
+    <t>PAT_ENC_HSP.ADT_ARRIVAL_TIME</t>
+  </si>
+  <si>
+    <t>PAT_ENC_HSP/ ZC_ARRIV_MEANS--EPT 	490</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAST( CASE
+                                              WHEN NULLIF( PAT_ENC_HSP.MEANS_OF_ARRV_C,'' ) IS NULL THEN ''                                                                                  ELSE ZC_ARRIV_MEANS.NAME
+                                            END AS VARCHAR (15) ) </t>
+  </si>
+  <si>
+    <t>VARCHAR (15)</t>
+  </si>
+  <si>
+    <t>MEANS_OF_ARRV_C</t>
+  </si>
+  <si>
+    <t>PAT_ENC_RSN_VISIT/CL_RSN_FOR_VISIT-ABBREVIATION</t>
+  </si>
+  <si>
+    <t>PAT_ENC_HSP-ZC_ACUITY_LEVE</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>VARCHAR (66)</t>
+  </si>
+  <si>
+    <r>
+      <t>ACUITY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>_LEVEL_C</t>
+    </r>
+  </si>
+  <si>
+    <t>PATIENT</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>NPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATIENT_RACE-ZC_PATIENT_RACE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETHNIC_GROUP_C </t>
+  </si>
+  <si>
+    <t>PAT_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>PAT_LAST_NAME</t>
+  </si>
+  <si>
+    <t>PAT_ENC</t>
+  </si>
+  <si>
+    <t>BIRTH_DATE</t>
+  </si>
+  <si>
+    <t>ADD_LINE_1</t>
+  </si>
+  <si>
+    <t>ADD_LINE_2</t>
+  </si>
+  <si>
+    <t>STATE_C</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>PAT_MRN_ID</t>
+  </si>
+  <si>
+    <t>ED_IEV_EVENT_INFO</t>
+  </si>
+  <si>
+    <t>EVENT_TIME
+EVENT_TYPE
+EVENT_STATUS_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOSP_ADMSN_TIME </t>
+  </si>
+  <si>
+    <t>CLARITY_SER_2</t>
+  </si>
+  <si>
+    <t>CLARITY_SER</t>
+  </si>
+  <si>
+    <t>PROV_NAME</t>
+  </si>
+  <si>
+    <t>CLARITY_SER_2-ZC_LICENSE_DISPLAY</t>
+  </si>
+  <si>
+    <t>PAT_ENC_CSN_ID</t>
+  </si>
+  <si>
+    <t>HSP_ATND_PROV</t>
+  </si>
+  <si>
+    <t>ATTEND_FROM_DATE,ATTEND_TO_DATE</t>
+  </si>
+  <si>
+    <t>CLARITY_EDG</t>
+  </si>
+  <si>
+    <t>DX_NAME</t>
+  </si>
+  <si>
+    <t>REASON_VISIT_NAME</t>
+  </si>
+  <si>
+    <t>VARCHAR (254)</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>PATIENT_4-ZC_GENDER_IDENTITY</t>
+  </si>
+  <si>
+    <t>ABBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CASE
+                                                       WHEN PATIENT.ETHNIC_GROUP_C IS NULL THEN  ''
+                                                       ELSE ZC_ETHNIC_GROUP.NAME
+                                                     END AS VARCHAR</t>
+  </si>
+  <si>
+    <t>CASE
+                                                                 WHEN PAT_ENC_HSP.ACUITY_LEVEL_C IS NULL THEN ''
+                                                                 ELSE ZC_ACUITY_LEVEL.NAME</t>
+  </si>
+  <si>
+    <t>INP_ADM_DATE</t>
+  </si>
+  <si>
+    <t>CASE
+                                                       WHEN NULLIF( PATIENT.STATE_C,'' ) IS NULL THEN ''     
+                                                       ELSE ZC_STATE.NAME</t>
+  </si>
+  <si>
+    <t>select *from ED_IEV_EVENT_INFO
+ WHERE    EVENT_TYPE IN ('Check for Traige Codes')</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CASE
+               WHEN NULLIF( CLARITY_SER_2.PROV_ID,'' ) IS NULL THEN ''
+               ELSE CLARITY_SER_2.NPI
+             END </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE
+               WHEN NULLIF( CLARITY_SER_2.PROV_ID,'' ) IS NULL THEN ''
+               WHEN CLARITY_SER_2.CUR_CRED_C IS NULL THEN ''
+               ELSE ZC_LICENSE_DISPLAY.NAME
+             END </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDG_CURRENT_ICD10 --EPT 18400 </t>
+  </si>
+  <si>
+    <t>ED_DISP_TIME  EPT 34520</t>
+  </si>
+  <si>
+    <t>DISCH_DISP_C-18888</t>
+  </si>
+  <si>
+    <t>ED_DISP_TIME-34520</t>
+  </si>
+  <si>
+    <t>ED_DEPARTURE_TIME  EPT-49020</t>
+  </si>
+  <si>
+    <t>VARCHAR (200)</t>
+  </si>
+  <si>
+    <t>NUMERIC (18,0)</t>
+  </si>
+  <si>
+    <t>VARCHAR (50)</t>
+  </si>
+  <si>
+    <t>VARCHAR (60)</t>
+  </si>
+  <si>
+    <t>VARCHAR (102)</t>
+  </si>
+  <si>
+    <t>VARCHAR (10)</t>
+  </si>
+  <si>
+    <t>Source Table 2</t>
+  </si>
+  <si>
+    <t>EdVisitFact</t>
+  </si>
+  <si>
+    <t>Patientdim</t>
+  </si>
+  <si>
+    <t>ProviderDim</t>
+  </si>
+  <si>
+    <t>DiagnosisTerminologyDim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source Database 2 </t>
+  </si>
+  <si>
+    <t>DiagnosisDim</t>
+  </si>
+  <si>
+    <t>Caboodle</t>
+  </si>
+  <si>
+    <t>Clarity -EPT</t>
+  </si>
+  <si>
+    <t>Clarity -SER</t>
   </si>
 </sst>
 </file>
@@ -343,12 +595,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -371,6 +617,12 @@
       <name val="Abadi"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -386,7 +638,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -440,40 +692,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -514,87 +736,56 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,739 +1120,1188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00D832C-DCF7-4EAB-8BD4-89ECBD85F210}">
-  <dimension ref="A1:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EBB177-625A-42EC-AA8B-A08787181E40}">
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="67.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+    <col min="1" max="12" width="37.5703125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="K1" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>44986.021527777775</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="F2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="F3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="F4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="F5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="F6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="F7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="F8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="F9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="F10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>27691234</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="F11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>36893</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="F12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>44986.583333333336</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="F13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="F14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="F15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="F16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="F17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>94000</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="F18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>205421</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="F19" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>44986.583333333336</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="F20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>44986.597222222219</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="F21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>44986.640277777777</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="F22" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>1234567890</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="F23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="F24" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+      <c r="F25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="F26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>491</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="F27" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="F28" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>44986.750694444447</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
+      <c r="F29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="F30" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>44986.763194444444</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="14"/>
-    </row>
-    <row r="32" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
+      <c r="F31" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="12">
         <v>44986.763194444444</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="21"/>
+      <c r="F32" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
